--- a/数值/S_属性.xlsx
+++ b/数值/S_属性.xlsx
@@ -19,6 +19,30 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+若修改此值需要程序同步修改枚举常量</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -102,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>int</t>
   </si>
@@ -384,19 +408,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有运行时属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有运行时属性</t>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定力恢复加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enr_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stbr_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stbr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +529,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -766,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -779,9 +888,10 @@
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -795,7 +905,7 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -803,8 +913,11 @@
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +931,7 @@
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -826,8 +939,11 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -841,7 +957,7 @@
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -849,8 +965,11 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -861,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
@@ -872,8 +991,11 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -892,8 +1014,11 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -912,8 +1037,11 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -932,8 +1060,11 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -949,8 +1080,11 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -966,84 +1100,96 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>1000</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>1000</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -1051,16 +1197,19 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>1000</v>
@@ -1068,16 +1217,19 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -1085,67 +1237,79 @@
       <c r="G16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>1000</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <v>1000</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -1153,16 +1317,19 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -1170,16 +1337,19 @@
       <c r="G21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>1000</v>
@@ -1187,16 +1357,19 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F23">
         <v>1000</v>
@@ -1204,22 +1377,31 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1229,14 +1411,17 @@
       <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>91</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1246,14 +1431,17 @@
       <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="E26">
-        <v>2</v>
+      <c r="E26" t="s">
+        <v>92</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1263,14 +1451,17 @@
       <c r="C27" t="s">
         <v>67</v>
       </c>
-      <c r="E27">
-        <v>3</v>
+      <c r="E27" t="s">
+        <v>93</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1280,14 +1471,17 @@
       <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="E28">
-        <v>4</v>
+      <c r="E28" t="s">
+        <v>94</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1297,28 +1491,94 @@
       <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="E29">
-        <v>5</v>
+      <c r="E29" t="s">
+        <v>95</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
